--- a/data/Storks/Storks_Clean.xlsx
+++ b/data/Storks/Storks_Clean.xlsx
@@ -1,21 +1,237 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco2024\Dropbox\marcokuehne.github.io\data\Storks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD20050E-467F-49FA-B6C5-CC83C121DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Storks</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Fertility</t>
+  </si>
+  <si>
+    <t>UrbanPop</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>Bosnia Herzegowina</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,17 +275,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +331,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +400,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,60 +576,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Storks</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Population</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Fertility</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>UrbanPop</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1995</v>
@@ -411,10 +621,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ALB</t>
-        </is>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <v>28748</v>
@@ -429,11 +637,9 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2005</v>
@@ -441,10 +647,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ALB</t>
-        </is>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>28748</v>
@@ -459,11 +663,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1995</v>
@@ -471,10 +673,8 @@
       <c r="C4">
         <v>350</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AUT</t>
-        </is>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>83870</v>
@@ -489,11 +689,9 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2005</v>
@@ -501,10 +699,8 @@
       <c r="C5">
         <v>395</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AUT</t>
-        </is>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
       <c r="E5">
         <v>83870</v>
@@ -516,14 +712,12 @@
         <v>1.38</v>
       </c>
       <c r="H5">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1995</v>
@@ -531,10 +725,8 @@
       <c r="C6">
         <v>35</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BEL</t>
-        </is>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
         <v>30528</v>
@@ -546,14 +738,12 @@
         <v>1.61</v>
       </c>
       <c r="H6">
-        <v>9.859999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2005</v>
@@ -561,10 +751,8 @@
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BEL</t>
-        </is>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
         <v>30528</v>
@@ -579,11 +767,9 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Belarus</t>
-        </is>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1995</v>
@@ -591,10 +777,8 @@
       <c r="C8">
         <v>11807</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8">
         <v>207600</v>
@@ -609,11 +793,9 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Belarus</t>
-        </is>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2005</v>
@@ -621,10 +803,8 @@
       <c r="C9">
         <v>21362</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>BLR</t>
-        </is>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
       <c r="E9">
         <v>207600</v>
@@ -639,19 +819,15 @@
         <v>6.96</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Bosnia Herzegowina</t>
-        </is>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1995</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>BIH</t>
-        </is>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
       <c r="E10">
         <v>51129</v>
@@ -666,11 +842,9 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bosnia Herzegowina</t>
-        </is>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2005</v>
@@ -678,10 +852,8 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>BIH</t>
-        </is>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
       <c r="E11">
         <v>51129</v>
@@ -696,11 +868,9 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1995</v>
@@ -708,16 +878,14 @@
       <c r="C12">
         <v>4227</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>BGR</t>
-        </is>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
       <c r="E12">
         <v>110910</v>
       </c>
       <c r="F12">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="G12">
         <v>1.55</v>
@@ -726,11 +894,9 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2005</v>
@@ -738,10 +904,8 @@
       <c r="C13">
         <v>4826</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>BGR</t>
-        </is>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
       <c r="E13">
         <v>110910</v>
@@ -756,11 +920,9 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1995</v>
@@ -768,10 +930,8 @@
       <c r="C14">
         <v>800</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CZE</t>
-        </is>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
       <c r="E14">
         <v>78866</v>
@@ -786,11 +946,9 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2005</v>
@@ -798,10 +956,8 @@
       <c r="C15">
         <v>814</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CZE</t>
-        </is>
+      <c r="D15" t="s">
+        <v>21</v>
       </c>
       <c r="E15">
         <v>78866</v>
@@ -816,11 +972,9 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1995</v>
@@ -828,10 +982,8 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DNK</t>
-        </is>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
       <c r="E16">
         <v>43094</v>
@@ -846,11 +998,9 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2005</v>
@@ -858,10 +1008,8 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DNK</t>
-        </is>
+      <c r="D17" t="s">
+        <v>23</v>
       </c>
       <c r="E17">
         <v>43094</v>
@@ -873,14 +1021,12 @@
         <v>1.76</v>
       </c>
       <c r="H17">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1995</v>
@@ -888,10 +1034,8 @@
       <c r="C18">
         <v>2650</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
+      <c r="D18" t="s">
+        <v>25</v>
       </c>
       <c r="E18">
         <v>45226</v>
@@ -906,11 +1050,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
       </c>
       <c r="B19">
         <v>2005</v>
@@ -918,10 +1060,8 @@
       <c r="C19">
         <v>4500</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EST</t>
-        </is>
+      <c r="D19" t="s">
+        <v>25</v>
       </c>
       <c r="E19">
         <v>45226</v>
@@ -936,11 +1076,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1995</v>
@@ -948,10 +1086,8 @@
       <c r="C20">
         <v>315</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>FRA</t>
-        </is>
+      <c r="D20" t="s">
+        <v>27</v>
       </c>
       <c r="E20">
         <v>547030</v>
@@ -966,11 +1102,9 @@
         <v>43.63</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
       <c r="B21">
         <v>2005</v>
@@ -978,10 +1112,8 @@
       <c r="C21">
         <v>975</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>FRA</t>
-        </is>
+      <c r="D21" t="s">
+        <v>27</v>
       </c>
       <c r="E21">
         <v>547030</v>
@@ -996,11 +1128,9 @@
         <v>47.23</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1995</v>
@@ -1008,10 +1138,8 @@
       <c r="C22">
         <v>4063</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
+      <c r="D22" t="s">
+        <v>29</v>
       </c>
       <c r="E22">
         <v>357021</v>
@@ -1026,11 +1154,9 @@
         <v>60.05</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
       </c>
       <c r="B23">
         <v>2005</v>
@@ -1038,16 +1164,14 @@
       <c r="C23">
         <v>4482</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
       <c r="E23">
         <v>357021</v>
       </c>
       <c r="F23">
-        <v>81.59999999999999</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="G23">
         <v>1.35</v>
@@ -1056,11 +1180,9 @@
         <v>62.05</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1995</v>
@@ -1068,10 +1190,8 @@
       <c r="C24">
         <v>1500</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRC</t>
-        </is>
+      <c r="D24" t="s">
+        <v>31</v>
       </c>
       <c r="E24">
         <v>131940</v>
@@ -1086,11 +1206,9 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
       </c>
       <c r="B25">
         <v>2005</v>
@@ -1098,10 +1216,8 @@
       <c r="C25">
         <v>2157</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRC</t>
-        </is>
+      <c r="D25" t="s">
+        <v>31</v>
       </c>
       <c r="E25">
         <v>131940</v>
@@ -1116,11 +1232,9 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1995</v>
@@ -1128,10 +1242,8 @@
       <c r="C26">
         <v>266</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
+      <c r="D26" t="s">
+        <v>33</v>
       </c>
       <c r="E26">
         <v>41526</v>
@@ -1146,11 +1258,9 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>The Netherlands</t>
-        </is>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
       </c>
       <c r="B27">
         <v>2005</v>
@@ -1158,10 +1268,8 @@
       <c r="C27">
         <v>562</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
+      <c r="D27" t="s">
+        <v>33</v>
       </c>
       <c r="E27">
         <v>41526</v>
@@ -1176,11 +1284,9 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
       </c>
       <c r="B28">
         <v>1995</v>
@@ -1188,10 +1294,8 @@
       <c r="C28">
         <v>4850</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>HUN</t>
-        </is>
+      <c r="D28" t="s">
+        <v>35</v>
       </c>
       <c r="E28">
         <v>93030</v>
@@ -1206,11 +1310,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
       </c>
       <c r="B29">
         <v>2005</v>
@@ -1218,10 +1320,8 @@
       <c r="C29">
         <v>5200</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>HUN</t>
-        </is>
+      <c r="D29" t="s">
+        <v>35</v>
       </c>
       <c r="E29">
         <v>93030</v>
@@ -1236,11 +1336,9 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1995</v>
@@ -1248,10 +1346,8 @@
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
+      <c r="D30" t="s">
+        <v>37</v>
       </c>
       <c r="E30">
         <v>301230</v>
@@ -1266,11 +1362,9 @@
         <v>38.32</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
       </c>
       <c r="B31">
         <v>2005</v>
@@ -1278,10 +1372,8 @@
       <c r="C31">
         <v>50</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
+      <c r="D31" t="s">
+        <v>37</v>
       </c>
       <c r="E31">
         <v>301230</v>
@@ -1293,14 +1385,12 @@
         <v>1.31</v>
       </c>
       <c r="H31">
-        <v>39.84</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+        <v>39.840000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1995</v>
@@ -1308,16 +1398,14 @@
       <c r="C32">
         <v>10600</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
+      <c r="D32" t="s">
+        <v>39</v>
       </c>
       <c r="E32">
         <v>64589</v>
       </c>
       <c r="F32">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G32">
         <v>1.63</v>
@@ -1326,11 +1414,9 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
       </c>
       <c r="B33">
         <v>2005</v>
@@ -1338,10 +1424,8 @@
       <c r="C33">
         <v>10600</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>LVA</t>
-        </is>
+      <c r="D33" t="s">
+        <v>39</v>
       </c>
       <c r="E33">
         <v>64589</v>
@@ -1356,11 +1440,9 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1995</v>
@@ -1368,10 +1450,8 @@
       <c r="C34">
         <v>11124</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
+      <c r="D34" t="s">
+        <v>41</v>
       </c>
       <c r="E34">
         <v>65200</v>
@@ -1386,11 +1466,9 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>40</v>
       </c>
       <c r="B35">
         <v>2005</v>
@@ -1398,10 +1476,8 @@
       <c r="C35">
         <v>13000</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>LTU</t>
-        </is>
+      <c r="D35" t="s">
+        <v>41</v>
       </c>
       <c r="E35">
         <v>65200</v>
@@ -1416,11 +1492,9 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>42</v>
       </c>
       <c r="B36">
         <v>1995</v>
@@ -1428,10 +1502,8 @@
       <c r="C36">
         <v>40900</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>POL</t>
-        </is>
+      <c r="D36" t="s">
+        <v>43</v>
       </c>
       <c r="E36">
         <v>312685</v>
@@ -1446,11 +1518,9 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
       </c>
       <c r="B37">
         <v>2005</v>
@@ -1458,16 +1528,14 @@
       <c r="C37">
         <v>52500</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>POL</t>
-        </is>
+      <c r="D37" t="s">
+        <v>43</v>
       </c>
       <c r="E37">
         <v>312685</v>
       </c>
       <c r="F37">
-        <v>38.37</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="G37">
         <v>1.26</v>
@@ -1476,11 +1544,9 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>44</v>
       </c>
       <c r="B38">
         <v>1995</v>
@@ -1488,10 +1554,8 @@
       <c r="C38">
         <v>3302</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>PRT</t>
-        </is>
+      <c r="D38" t="s">
+        <v>45</v>
       </c>
       <c r="E38">
         <v>92391</v>
@@ -1506,11 +1570,9 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>44</v>
       </c>
       <c r="B39">
         <v>2005</v>
@@ -1518,10 +1580,8 @@
       <c r="C39">
         <v>7685</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>PRT</t>
-        </is>
+      <c r="D39" t="s">
+        <v>45</v>
       </c>
       <c r="E39">
         <v>92391</v>
@@ -1536,11 +1596,9 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>46</v>
       </c>
       <c r="B40">
         <v>1995</v>
@@ -1548,10 +1606,8 @@
       <c r="C40">
         <v>5000</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ROU</t>
-        </is>
+      <c r="D40" t="s">
+        <v>47</v>
       </c>
       <c r="E40">
         <v>237500</v>
@@ -1566,11 +1622,9 @@
         <v>12.35</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>46</v>
       </c>
       <c r="B41">
         <v>2005</v>
@@ -1578,10 +1632,8 @@
       <c r="C41">
         <v>5500</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ROU</t>
-        </is>
+      <c r="D41" t="s">
+        <v>47</v>
       </c>
       <c r="E41">
         <v>237500</v>
@@ -1596,11 +1648,9 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>48</v>
       </c>
       <c r="B42">
         <v>1995</v>
@@ -1608,16 +1658,14 @@
       <c r="C42">
         <v>7000</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
+      <c r="D42" t="s">
+        <v>49</v>
       </c>
       <c r="E42">
         <v>17075200</v>
       </c>
       <c r="F42">
-        <v>148.23</v>
+        <v>148.22999999999999</v>
       </c>
       <c r="G42">
         <v>1.55</v>
@@ -1626,11 +1674,9 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>48</v>
       </c>
       <c r="B43">
         <v>2005</v>
@@ -1638,16 +1684,14 @@
       <c r="C43">
         <v>10200</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
+      <c r="D43" t="s">
+        <v>49</v>
       </c>
       <c r="E43">
         <v>17075200</v>
       </c>
       <c r="F43">
-        <v>143.67</v>
+        <v>143.66999999999999</v>
       </c>
       <c r="G43">
         <v>1.3</v>
@@ -1656,11 +1700,9 @@
         <v>105.51</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>50</v>
       </c>
       <c r="B44">
         <v>1995</v>
@@ -1668,10 +1710,8 @@
       <c r="C44">
         <v>203</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>SVN</t>
-        </is>
+      <c r="D44" t="s">
+        <v>51</v>
       </c>
       <c r="E44">
         <v>20273</v>
@@ -1686,11 +1726,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>50</v>
       </c>
       <c r="B45">
         <v>2005</v>
@@ -1698,10 +1736,8 @@
       <c r="C45">
         <v>240</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>SVN</t>
-        </is>
+      <c r="D45" t="s">
+        <v>51</v>
       </c>
       <c r="E45">
         <v>20273</v>
@@ -1716,11 +1752,9 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>52</v>
       </c>
       <c r="B46">
         <v>1995</v>
@@ -1728,10 +1762,8 @@
       <c r="C46">
         <v>1127</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
+      <c r="D46" t="s">
+        <v>53</v>
       </c>
       <c r="E46">
         <v>48845</v>
@@ -1746,11 +1778,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>52</v>
       </c>
       <c r="B47">
         <v>2005</v>
@@ -1758,10 +1788,8 @@
       <c r="C47">
         <v>1331</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
+      <c r="D47" t="s">
+        <v>53</v>
       </c>
       <c r="E47">
         <v>48845</v>
@@ -1776,11 +1804,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>54</v>
       </c>
       <c r="B48">
         <v>1995</v>
@@ -1788,10 +1814,8 @@
       <c r="C48">
         <v>16643</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
+      <c r="D48" t="s">
+        <v>55</v>
       </c>
       <c r="E48">
         <v>504782</v>
@@ -1806,11 +1830,9 @@
         <v>30.26</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>54</v>
       </c>
       <c r="B49">
         <v>2005</v>
@@ -1818,10 +1840,8 @@
       <c r="C49">
         <v>33217</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
+      <c r="D49" t="s">
+        <v>55</v>
       </c>
       <c r="E49">
         <v>504782</v>
@@ -1836,11 +1856,9 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>56</v>
       </c>
       <c r="B50">
         <v>1995</v>
@@ -1848,10 +1866,8 @@
       <c r="C50">
         <v>11</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>SWE</t>
-        </is>
+      <c r="D50" t="s">
+        <v>57</v>
       </c>
       <c r="E50">
         <v>449964</v>
@@ -1860,17 +1876,15 @@
         <v>8.84</v>
       </c>
       <c r="G50">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H50">
         <v>7.41</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>56</v>
       </c>
       <c r="B51">
         <v>2005</v>
@@ -1878,16 +1892,14 @@
       <c r="C51">
         <v>29</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>SWE</t>
-        </is>
+      <c r="D51" t="s">
+        <v>57</v>
       </c>
       <c r="E51">
         <v>449964</v>
       </c>
       <c r="F51">
-        <v>9.039999999999999</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="G51">
         <v>1.67</v>
@@ -1896,11 +1908,9 @@
         <v>7.62</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>58</v>
       </c>
       <c r="B52">
         <v>1995</v>
@@ -1908,10 +1918,8 @@
       <c r="C52">
         <v>167</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
+      <c r="D52" t="s">
+        <v>59</v>
       </c>
       <c r="E52">
         <v>41290</v>
@@ -1926,11 +1934,9 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>58</v>
       </c>
       <c r="B53">
         <v>2005</v>
@@ -1938,10 +1944,8 @@
       <c r="C53">
         <v>198</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
+      <c r="D53" t="s">
+        <v>59</v>
       </c>
       <c r="E53">
         <v>41290</v>
@@ -1956,19 +1960,15 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>60</v>
       </c>
       <c r="B54">
         <v>1995</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>TUR</t>
-        </is>
+      <c r="D54" t="s">
+        <v>61</v>
       </c>
       <c r="E54">
         <v>780580</v>
@@ -1983,11 +1983,9 @@
         <v>36.33</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>60</v>
       </c>
       <c r="B55">
         <v>2005</v>
@@ -1995,16 +1993,14 @@
       <c r="C55">
         <v>6195</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>TUR</t>
-        </is>
+      <c r="D55" t="s">
+        <v>61</v>
       </c>
       <c r="E55">
         <v>780580</v>
       </c>
       <c r="F55">
-        <v>67.90000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="G55">
         <v>2.37</v>
@@ -2013,11 +2009,9 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>62</v>
       </c>
       <c r="B56">
         <v>1995</v>
@@ -2025,10 +2019,8 @@
       <c r="C56">
         <v>17500</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
+      <c r="D56" t="s">
+        <v>63</v>
       </c>
       <c r="E56">
         <v>603700</v>
@@ -2043,11 +2035,9 @@
         <v>34.08</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>62</v>
       </c>
       <c r="B57">
         <v>2005</v>
@@ -2055,10 +2045,8 @@
       <c r="C57">
         <v>30000</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
+      <c r="D57" t="s">
+        <v>63</v>
       </c>
       <c r="E57">
         <v>603700</v>
@@ -2067,7 +2055,7 @@
         <v>46.89</v>
       </c>
       <c r="G57">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H57">
         <v>31.79</v>
